--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIT-PROJECTS\bit.shopflower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C01C1E-506D-4194-B4D6-DC60810BCF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C849DB-CDAF-47CE-93BF-CBBC5C2B5ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>WBS</t>
   </si>
@@ -560,13 +560,13 @@
 - Dashboard Customers</t>
   </si>
   <si>
-    <t>Module Report Penjualan 
- - PDF
- - Excel</t>
+    <t>- Integrasi Snap API
+- Integrasi Payment status update ke database.</t>
   </si>
   <si>
-    <t>- Integrasi Snap API
-- Integrasi Payment status update ke database.</t>
+    <t>Module Report Penjualan 
+ - Report PDF
+ - Report Excel</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1289,26 +1289,6 @@
       <top style="thin">
         <color indexed="22"/>
       </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFEFEFEF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEFEFEF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="22"/>
       </bottom>
@@ -1630,6 +1610,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1680,46 +1675,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="20" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="20" borderId="12" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="20" borderId="12" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="20" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="20" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1733,31 +1701,13 @@
     <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="30" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="22" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="38" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="38" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1778,16 +1728,22 @@
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="38" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="38" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="166" fontId="38" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1828,54 +1784,6 @@
     </xf>
     <xf numFmtId="166" fontId="38" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="38" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="38" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="45" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="46" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="46" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="45" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="46" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="49" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="48" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="51" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1893,15 +1801,6 @@
     <xf numFmtId="0" fontId="54" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="46" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="20" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="56" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1913,17 +1812,17 @@
     <xf numFmtId="0" fontId="57" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="57" fillId="22" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1933,168 +1832,242 @@
     <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="49" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="49" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="48" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="57" fillId="22" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="57" fillId="22" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="57" fillId="22" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="57" fillId="22" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="57" fillId="22" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="40" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="23" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="40" fillId="23" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="40" fillId="23" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="20" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="20" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="20" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="20" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="20" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="46" fillId="21" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="22" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="22" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="21" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="21" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="45" fillId="20" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="46" fillId="20" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="20" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="48" fillId="20" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="45" fillId="20" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="46" fillId="20" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="48" fillId="21" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2290,15 +2263,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>257880</xdr:colOff>
+      <xdr:colOff>116769</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>117122</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2692,15 +2665,15 @@
   <dimension ref="A1:EU24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.08984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.81640625" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="12" style="1" customWidth="1"/>
@@ -2712,2313 +2685,2330 @@
     <col min="68" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:151" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="85"/>
-      <c r="L1" s="18"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="120"/>
-      <c r="AJ1" s="120"/>
-      <c r="AK1" s="120"/>
-      <c r="AL1" s="120"/>
-      <c r="AM1" s="120"/>
-      <c r="AN1" s="120"/>
-      <c r="AO1" s="120"/>
-      <c r="AP1" s="120"/>
-      <c r="AQ1" s="120"/>
-      <c r="AR1" s="120"/>
-      <c r="AS1" s="120"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="53"/>
+      <c r="L1" s="9"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
     </row>
-    <row r="2" spans="1:151" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:151" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:151" s="72" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="71"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="82"/>
-      <c r="AM3" s="83"/>
-      <c r="AN3" s="81"/>
-      <c r="AO3" s="82"/>
-      <c r="AP3" s="82"/>
-      <c r="AQ3" s="82"/>
-      <c r="AR3" s="82"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="83"/>
-      <c r="AU3" s="81"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="82"/>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82"/>
-      <c r="BA3" s="83"/>
-      <c r="BB3" s="81"/>
-      <c r="BC3" s="82"/>
-      <c r="BD3" s="82"/>
-      <c r="BE3" s="82"/>
-      <c r="BF3" s="82"/>
-      <c r="BG3" s="82"/>
-      <c r="BH3" s="83"/>
-      <c r="BI3" s="81"/>
-      <c r="BJ3" s="82"/>
-      <c r="BK3" s="82"/>
-      <c r="BL3" s="82"/>
-      <c r="BM3" s="82"/>
-      <c r="BN3" s="82"/>
-      <c r="BO3" s="83"/>
+    <row r="3" spans="1:151" s="43" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="42"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="50"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="50"/>
+      <c r="BD3" s="50"/>
+      <c r="BE3" s="50"/>
+      <c r="BF3" s="50"/>
+      <c r="BG3" s="50"/>
+      <c r="BH3" s="51"/>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="50"/>
+      <c r="BK3" s="50"/>
+      <c r="BL3" s="50"/>
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="50"/>
+      <c r="BO3" s="51"/>
     </row>
-    <row r="4" spans="1:151" s="76" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="79" t="s">
+    <row r="4" spans="1:151" s="44" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="127">
+      <c r="C4" s="47"/>
+      <c r="D4" s="63">
         <v>45775</v>
       </c>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129"/>
-      <c r="I4" s="79" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="I4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="80">
+      <c r="J4" s="48">
         <v>1</v>
       </c>
-      <c r="L4" s="125" t="str">
+      <c r="L4" s="61" t="str">
         <f>"Week "&amp;(L6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="125" t="str">
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="61" t="str">
         <f>"Week "&amp;(S6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="134" t="str">
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="70" t="str">
         <f>"Week "&amp;(Z6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="135"/>
-      <c r="AG4" s="121" t="str">
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="55" t="str">
         <f>"Week "&amp;(AG6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="122"/>
-      <c r="AN4" s="114" t="str">
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="84" t="str">
         <f>"Week "&amp;(AN6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="103"/>
-      <c r="AS4" s="103"/>
-      <c r="AT4" s="115"/>
-      <c r="AU4" s="110" t="str">
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="85"/>
+      <c r="AU4" s="80" t="str">
         <f>"Week "&amp;(AU6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="111"/>
-      <c r="BB4" s="116" t="str">
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="86" t="str">
         <f>"Week "&amp;(BB6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BC4" s="103"/>
-      <c r="BD4" s="103"/>
-      <c r="BE4" s="103"/>
-      <c r="BF4" s="103"/>
-      <c r="BG4" s="103"/>
-      <c r="BH4" s="117"/>
-      <c r="BI4" s="102" t="str">
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="56"/>
+      <c r="BE4" s="56"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="56"/>
+      <c r="BH4" s="87"/>
+      <c r="BI4" s="74" t="str">
         <f>"Week "&amp;(BI6-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BJ4" s="103"/>
-      <c r="BK4" s="103"/>
-      <c r="BL4" s="103"/>
-      <c r="BM4" s="103"/>
-      <c r="BN4" s="103"/>
-      <c r="BO4" s="104"/>
+      <c r="BJ4" s="56"/>
+      <c r="BK4" s="56"/>
+      <c r="BL4" s="56"/>
+      <c r="BM4" s="56"/>
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="75"/>
     </row>
-    <row r="5" spans="1:151" s="30" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
-      <c r="B5" s="79" t="s">
+    <row r="5" spans="1:151" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
+      <c r="B5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="L5" s="131">
+      <c r="C5" s="47"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="L5" s="67">
         <f>L6</f>
         <v>45775</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="131">
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="67">
         <f>S6</f>
         <v>45782</v>
       </c>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="136">
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="72">
         <f>Z6</f>
         <v>45789</v>
       </c>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="123">
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="58">
         <f>AG6</f>
         <v>45796</v>
       </c>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="124"/>
-      <c r="AN5" s="108">
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="78">
         <f>AN6</f>
         <v>45803</v>
       </c>
-      <c r="AO5" s="106"/>
-      <c r="AP5" s="106"/>
-      <c r="AQ5" s="106"/>
-      <c r="AR5" s="106"/>
-      <c r="AS5" s="106"/>
-      <c r="AT5" s="109"/>
-      <c r="AU5" s="112">
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="59"/>
+      <c r="AT5" s="79"/>
+      <c r="AU5" s="82">
         <f>AU6</f>
         <v>45810</v>
       </c>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="106"/>
-      <c r="AX5" s="106"/>
-      <c r="AY5" s="106"/>
-      <c r="AZ5" s="106"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="118">
+      <c r="AV5" s="59"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
+      <c r="AY5" s="59"/>
+      <c r="AZ5" s="59"/>
+      <c r="BA5" s="83"/>
+      <c r="BB5" s="88">
         <f>BB6</f>
         <v>45817</v>
       </c>
-      <c r="BC5" s="106"/>
-      <c r="BD5" s="106"/>
-      <c r="BE5" s="106"/>
-      <c r="BF5" s="106"/>
-      <c r="BG5" s="106"/>
-      <c r="BH5" s="119"/>
-      <c r="BI5" s="105">
+      <c r="BC5" s="59"/>
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="59"/>
+      <c r="BF5" s="59"/>
+      <c r="BG5" s="59"/>
+      <c r="BH5" s="89"/>
+      <c r="BI5" s="76">
         <f>BI6</f>
         <v>45824</v>
       </c>
-      <c r="BJ5" s="106"/>
-      <c r="BK5" s="106"/>
-      <c r="BL5" s="106"/>
-      <c r="BM5" s="106"/>
-      <c r="BN5" s="106"/>
-      <c r="BO5" s="107"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="77"/>
     </row>
-    <row r="6" spans="1:151" s="28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L6" s="39">
+    <row r="6" spans="1:151" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="24">
         <f>D4-WEEKDAY(D4,1)+2+7*(J4-1)</f>
         <v>45775</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="14">
         <f t="shared" ref="M6:AR6" si="0">L6+1</f>
         <v>45776</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="14">
         <f t="shared" si="0"/>
         <v>45777</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="14">
         <f t="shared" si="0"/>
         <v>45778</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="14">
         <f t="shared" si="0"/>
         <v>45779</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="14">
         <f t="shared" si="0"/>
         <v>45780</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R6" s="25">
         <f t="shared" si="0"/>
         <v>45781</v>
       </c>
-      <c r="S6" s="39">
+      <c r="S6" s="24">
         <f t="shared" si="0"/>
         <v>45782</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="14">
         <f t="shared" si="0"/>
         <v>45783</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="14">
         <f t="shared" si="0"/>
         <v>45784</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="14">
         <f t="shared" ref="V6" si="1">U6+1</f>
         <v>45785</v>
       </c>
-      <c r="W6" s="29">
+      <c r="W6" s="14">
         <f t="shared" ref="W6" si="2">V6+1</f>
         <v>45786</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6" s="14">
         <f t="shared" ref="X6" si="3">W6+1</f>
         <v>45787</v>
       </c>
-      <c r="Y6" s="41">
+      <c r="Y6" s="26">
         <f t="shared" si="0"/>
         <v>45788</v>
       </c>
-      <c r="Z6" s="42">
+      <c r="Z6" s="27">
         <f t="shared" si="0"/>
         <v>45789</v>
       </c>
-      <c r="AA6" s="29">
+      <c r="AA6" s="14">
         <f t="shared" si="0"/>
         <v>45790</v>
       </c>
-      <c r="AB6" s="29">
+      <c r="AB6" s="14">
         <f t="shared" si="0"/>
         <v>45791</v>
       </c>
-      <c r="AC6" s="29">
+      <c r="AC6" s="14">
         <f t="shared" si="0"/>
         <v>45792</v>
       </c>
-      <c r="AD6" s="29">
+      <c r="AD6" s="14">
         <f t="shared" si="0"/>
         <v>45793</v>
       </c>
-      <c r="AE6" s="29">
+      <c r="AE6" s="14">
         <f t="shared" si="0"/>
         <v>45794</v>
       </c>
-      <c r="AF6" s="43">
+      <c r="AF6" s="28">
         <f t="shared" si="0"/>
         <v>45795</v>
       </c>
-      <c r="AG6" s="44">
+      <c r="AG6" s="29">
         <f t="shared" si="0"/>
         <v>45796</v>
       </c>
-      <c r="AH6" s="29">
+      <c r="AH6" s="14">
         <f t="shared" si="0"/>
         <v>45797</v>
       </c>
-      <c r="AI6" s="29">
+      <c r="AI6" s="14">
         <f t="shared" si="0"/>
         <v>45798</v>
       </c>
-      <c r="AJ6" s="29">
+      <c r="AJ6" s="14">
         <f t="shared" si="0"/>
         <v>45799</v>
       </c>
-      <c r="AK6" s="29">
+      <c r="AK6" s="14">
         <f t="shared" si="0"/>
         <v>45800</v>
       </c>
-      <c r="AL6" s="29">
+      <c r="AL6" s="14">
         <f t="shared" si="0"/>
         <v>45801</v>
       </c>
-      <c r="AM6" s="45">
+      <c r="AM6" s="30">
         <f t="shared" si="0"/>
         <v>45802</v>
       </c>
-      <c r="AN6" s="46">
+      <c r="AN6" s="31">
         <f t="shared" si="0"/>
         <v>45803</v>
       </c>
-      <c r="AO6" s="29">
+      <c r="AO6" s="14">
         <f t="shared" si="0"/>
         <v>45804</v>
       </c>
-      <c r="AP6" s="29">
+      <c r="AP6" s="14">
         <f t="shared" si="0"/>
         <v>45805</v>
       </c>
-      <c r="AQ6" s="29">
+      <c r="AQ6" s="14">
         <f t="shared" si="0"/>
         <v>45806</v>
       </c>
-      <c r="AR6" s="29">
+      <c r="AR6" s="14">
         <f t="shared" si="0"/>
         <v>45807</v>
       </c>
-      <c r="AS6" s="29">
+      <c r="AS6" s="14">
         <f t="shared" ref="AS6:BO6" si="4">AR6+1</f>
         <v>45808</v>
       </c>
-      <c r="AT6" s="47">
+      <c r="AT6" s="32">
         <f t="shared" si="4"/>
         <v>45809</v>
       </c>
-      <c r="AU6" s="48">
+      <c r="AU6" s="33">
         <f t="shared" si="4"/>
         <v>45810</v>
       </c>
-      <c r="AV6" s="29">
+      <c r="AV6" s="14">
         <f t="shared" si="4"/>
         <v>45811</v>
       </c>
-      <c r="AW6" s="29">
+      <c r="AW6" s="14">
         <f t="shared" si="4"/>
         <v>45812</v>
       </c>
-      <c r="AX6" s="29">
+      <c r="AX6" s="14">
         <f t="shared" si="4"/>
         <v>45813</v>
       </c>
-      <c r="AY6" s="29">
+      <c r="AY6" s="14">
         <f t="shared" si="4"/>
         <v>45814</v>
       </c>
-      <c r="AZ6" s="29">
+      <c r="AZ6" s="14">
         <f t="shared" si="4"/>
         <v>45815</v>
       </c>
-      <c r="BA6" s="49">
+      <c r="BA6" s="34">
         <f t="shared" si="4"/>
         <v>45816</v>
       </c>
-      <c r="BB6" s="50">
+      <c r="BB6" s="35">
         <f t="shared" si="4"/>
         <v>45817</v>
       </c>
-      <c r="BC6" s="29">
+      <c r="BC6" s="14">
         <f t="shared" si="4"/>
         <v>45818</v>
       </c>
-      <c r="BD6" s="29">
+      <c r="BD6" s="14">
         <f t="shared" si="4"/>
         <v>45819</v>
       </c>
-      <c r="BE6" s="29">
+      <c r="BE6" s="14">
         <f t="shared" si="4"/>
         <v>45820</v>
       </c>
-      <c r="BF6" s="29">
+      <c r="BF6" s="14">
         <f t="shared" si="4"/>
         <v>45821</v>
       </c>
-      <c r="BG6" s="29">
+      <c r="BG6" s="14">
         <f t="shared" si="4"/>
         <v>45822</v>
       </c>
-      <c r="BH6" s="51">
+      <c r="BH6" s="36">
         <f t="shared" si="4"/>
         <v>45823</v>
       </c>
-      <c r="BI6" s="52">
+      <c r="BI6" s="37">
         <f t="shared" si="4"/>
         <v>45824</v>
       </c>
-      <c r="BJ6" s="29">
+      <c r="BJ6" s="14">
         <f t="shared" si="4"/>
         <v>45825</v>
       </c>
-      <c r="BK6" s="29">
+      <c r="BK6" s="14">
         <f t="shared" si="4"/>
         <v>45826</v>
       </c>
-      <c r="BL6" s="29">
+      <c r="BL6" s="14">
         <f t="shared" si="4"/>
         <v>45827</v>
       </c>
-      <c r="BM6" s="29">
+      <c r="BM6" s="14">
         <f t="shared" si="4"/>
         <v>45828</v>
       </c>
-      <c r="BN6" s="29">
+      <c r="BN6" s="14">
         <f t="shared" si="4"/>
         <v>45829</v>
       </c>
-      <c r="BO6" s="53">
+      <c r="BO6" s="38">
         <f t="shared" si="4"/>
         <v>45830</v>
       </c>
     </row>
-    <row r="7" spans="1:151" s="27" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:151" s="12" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="36" t="str">
+      <c r="K7" s="94"/>
+      <c r="L7" s="21" t="str">
         <f t="shared" ref="L7:AQ7" si="5">CHOOSE(WEEKDAY(L6,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="M7" s="25" t="str">
+      <c r="M7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="N7" s="25" t="str">
+      <c r="N7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="O7" s="25" t="str">
+      <c r="O7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="P7" s="25" t="str">
+      <c r="P7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="Q7" s="25" t="str">
+      <c r="Q7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="R7" s="37" t="str">
+      <c r="R7" s="22" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="S7" s="36" t="str">
+      <c r="S7" s="21" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="T7" s="25" t="str">
+      <c r="T7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="U7" s="25" t="str">
+      <c r="U7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="V7" s="25" t="str">
+      <c r="V7" s="10" t="str">
         <f t="shared" ref="V7:X7" si="6">CHOOSE(WEEKDAY(V6,1),"S","M","T","W","T","F","S")</f>
         <v>T</v>
       </c>
-      <c r="W7" s="25" t="str">
+      <c r="W7" s="10" t="str">
         <f t="shared" si="6"/>
         <v>F</v>
       </c>
-      <c r="X7" s="25" t="str">
+      <c r="X7" s="10" t="str">
         <f t="shared" si="6"/>
         <v>S</v>
       </c>
-      <c r="Y7" s="37" t="str">
+      <c r="Y7" s="22" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="Z7" s="35" t="str">
+      <c r="Z7" s="20" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="AA7" s="25" t="str">
+      <c r="AA7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AB7" s="25" t="str">
+      <c r="AB7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="AC7" s="25" t="str">
+      <c r="AC7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AD7" s="25" t="str">
+      <c r="AD7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="AE7" s="25" t="str">
+      <c r="AE7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AF7" s="38" t="str">
+      <c r="AF7" s="23" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AG7" s="36" t="str">
+      <c r="AG7" s="21" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="AH7" s="25" t="str">
+      <c r="AH7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AI7" s="25" t="str">
+      <c r="AI7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="AJ7" s="25" t="str">
+      <c r="AJ7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AK7" s="25" t="str">
+      <c r="AK7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="AL7" s="25" t="str">
+      <c r="AL7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AM7" s="37" t="str">
+      <c r="AM7" s="22" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AN7" s="36" t="str">
+      <c r="AN7" s="21" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="AO7" s="25" t="str">
+      <c r="AO7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AP7" s="25" t="str">
+      <c r="AP7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="AQ7" s="25" t="str">
+      <c r="AQ7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AR7" s="25" t="str">
+      <c r="AR7" s="10" t="str">
         <f t="shared" ref="AR7:BO7" si="7">CHOOSE(WEEKDAY(AR6,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
-      <c r="AS7" s="25" t="str">
+      <c r="AS7" s="10" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="AT7" s="37" t="str">
+      <c r="AT7" s="22" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="AU7" s="36" t="str">
+      <c r="AU7" s="21" t="str">
         <f t="shared" si="7"/>
         <v>M</v>
       </c>
-      <c r="AV7" s="25" t="str">
+      <c r="AV7" s="10" t="str">
         <f t="shared" si="7"/>
         <v>T</v>
       </c>
-      <c r="AW7" s="25" t="str">
+      <c r="AW7" s="10" t="str">
         <f t="shared" si="7"/>
         <v>W</v>
       </c>
-      <c r="AX7" s="25" t="str">
+      <c r="AX7" s="10" t="str">
         <f t="shared" si="7"/>
         <v>T</v>
       </c>
-      <c r="AY7" s="25" t="str">
+      <c r="AY7" s="10" t="str">
         <f t="shared" si="7"/>
         <v>F</v>
       </c>
-      <c r="AZ7" s="25" t="str">
+      <c r="AZ7" s="10" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="BA7" s="37" t="str">
+      <c r="BA7" s="22" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="BB7" s="36" t="str">
+      <c r="BB7" s="21" t="str">
         <f t="shared" si="7"/>
         <v>M</v>
       </c>
-      <c r="BC7" s="25" t="str">
+      <c r="BC7" s="10" t="str">
         <f t="shared" si="7"/>
         <v>T</v>
       </c>
-      <c r="BD7" s="25" t="str">
+      <c r="BD7" s="10" t="str">
         <f t="shared" si="7"/>
         <v>W</v>
       </c>
-      <c r="BE7" s="25" t="str">
+      <c r="BE7" s="10" t="str">
         <f t="shared" si="7"/>
         <v>T</v>
       </c>
-      <c r="BF7" s="25" t="str">
+      <c r="BF7" s="10" t="str">
         <f t="shared" si="7"/>
         <v>F</v>
       </c>
-      <c r="BG7" s="25" t="str">
+      <c r="BG7" s="10" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="BH7" s="37" t="str">
+      <c r="BH7" s="22" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="BI7" s="36" t="str">
+      <c r="BI7" s="21" t="str">
         <f t="shared" si="7"/>
         <v>M</v>
       </c>
-      <c r="BJ7" s="25" t="str">
+      <c r="BJ7" s="10" t="str">
         <f t="shared" si="7"/>
         <v>T</v>
       </c>
-      <c r="BK7" s="25" t="str">
+      <c r="BK7" s="10" t="str">
         <f t="shared" si="7"/>
         <v>W</v>
       </c>
-      <c r="BL7" s="25" t="str">
+      <c r="BL7" s="10" t="str">
         <f t="shared" si="7"/>
         <v>T</v>
       </c>
-      <c r="BM7" s="25" t="str">
+      <c r="BM7" s="10" t="str">
         <f t="shared" si="7"/>
         <v>F</v>
       </c>
-      <c r="BN7" s="25" t="str">
+      <c r="BN7" s="10" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="BO7" s="37" t="str">
+      <c r="BO7" s="22" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="BP7" s="26"/>
-      <c r="BQ7" s="26"/>
-      <c r="BR7" s="26"/>
-      <c r="BS7" s="26"/>
-      <c r="BT7" s="26"/>
-      <c r="BU7" s="26"/>
-      <c r="BV7" s="26"/>
-      <c r="BW7" s="26"/>
-      <c r="BX7" s="26"/>
-      <c r="BY7" s="26"/>
-      <c r="BZ7" s="26"/>
-      <c r="CA7" s="26"/>
-      <c r="CB7" s="26"/>
-      <c r="CC7" s="26"/>
-      <c r="CD7" s="26"/>
-      <c r="CE7" s="26"/>
-      <c r="CF7" s="26"/>
-      <c r="CG7" s="26"/>
-      <c r="CH7" s="26"/>
-      <c r="CI7" s="26"/>
-      <c r="CJ7" s="26"/>
-      <c r="CK7" s="26"/>
-      <c r="CL7" s="26"/>
-      <c r="CM7" s="26"/>
-      <c r="CN7" s="26"/>
-      <c r="CO7" s="26"/>
-      <c r="CP7" s="26"/>
-      <c r="CQ7" s="26"/>
-      <c r="CR7" s="26"/>
-      <c r="CS7" s="26"/>
-      <c r="CT7" s="26"/>
-      <c r="CU7" s="26"/>
-      <c r="CV7" s="26"/>
-      <c r="CW7" s="26"/>
-      <c r="CX7" s="26"/>
-      <c r="CY7" s="26"/>
-      <c r="CZ7" s="26"/>
-      <c r="DA7" s="26"/>
-      <c r="DB7" s="26"/>
-      <c r="DC7" s="26"/>
-      <c r="DD7" s="26"/>
-      <c r="DE7" s="26"/>
-      <c r="DF7" s="26"/>
-      <c r="DG7" s="26"/>
-      <c r="DH7" s="26"/>
-      <c r="DI7" s="26"/>
-      <c r="DJ7" s="26"/>
-      <c r="DK7" s="26"/>
-      <c r="DL7" s="26"/>
-      <c r="DM7" s="26"/>
-      <c r="DN7" s="26"/>
-      <c r="DO7" s="26"/>
-      <c r="DP7" s="26"/>
-      <c r="DQ7" s="26"/>
-      <c r="DR7" s="26"/>
-      <c r="DS7" s="26"/>
-      <c r="DT7" s="26"/>
-      <c r="DU7" s="26"/>
-      <c r="DV7" s="26"/>
-      <c r="DW7" s="26"/>
-      <c r="DX7" s="26"/>
-      <c r="DY7" s="26"/>
-      <c r="DZ7" s="26"/>
-      <c r="EA7" s="26"/>
-      <c r="EB7" s="26"/>
-      <c r="EC7" s="26"/>
-      <c r="ED7" s="26"/>
-      <c r="EE7" s="26"/>
-      <c r="EF7" s="26"/>
-      <c r="EG7" s="26"/>
-      <c r="EH7" s="26"/>
-      <c r="EI7" s="26"/>
-      <c r="EJ7" s="26"/>
-      <c r="EK7" s="26"/>
-      <c r="EL7" s="26"/>
-      <c r="EM7" s="26"/>
-      <c r="EN7" s="26"/>
-      <c r="EO7" s="26"/>
-      <c r="EP7" s="26"/>
-      <c r="EQ7" s="26"/>
-      <c r="ER7" s="26"/>
-      <c r="ES7" s="26"/>
-      <c r="ET7" s="26"/>
-      <c r="EU7" s="26"/>
+      <c r="BP7" s="11"/>
+      <c r="BQ7" s="11"/>
+      <c r="BR7" s="11"/>
+      <c r="BS7" s="11"/>
+      <c r="BT7" s="11"/>
+      <c r="BU7" s="11"/>
+      <c r="BV7" s="11"/>
+      <c r="BW7" s="11"/>
+      <c r="BX7" s="11"/>
+      <c r="BY7" s="11"/>
+      <c r="BZ7" s="11"/>
+      <c r="CA7" s="11"/>
+      <c r="CB7" s="11"/>
+      <c r="CC7" s="11"/>
+      <c r="CD7" s="11"/>
+      <c r="CE7" s="11"/>
+      <c r="CF7" s="11"/>
+      <c r="CG7" s="11"/>
+      <c r="CH7" s="11"/>
+      <c r="CI7" s="11"/>
+      <c r="CJ7" s="11"/>
+      <c r="CK7" s="11"/>
+      <c r="CL7" s="11"/>
+      <c r="CM7" s="11"/>
+      <c r="CN7" s="11"/>
+      <c r="CO7" s="11"/>
+      <c r="CP7" s="11"/>
+      <c r="CQ7" s="11"/>
+      <c r="CR7" s="11"/>
+      <c r="CS7" s="11"/>
+      <c r="CT7" s="11"/>
+      <c r="CU7" s="11"/>
+      <c r="CV7" s="11"/>
+      <c r="CW7" s="11"/>
+      <c r="CX7" s="11"/>
+      <c r="CY7" s="11"/>
+      <c r="CZ7" s="11"/>
+      <c r="DA7" s="11"/>
+      <c r="DB7" s="11"/>
+      <c r="DC7" s="11"/>
+      <c r="DD7" s="11"/>
+      <c r="DE7" s="11"/>
+      <c r="DF7" s="11"/>
+      <c r="DG7" s="11"/>
+      <c r="DH7" s="11"/>
+      <c r="DI7" s="11"/>
+      <c r="DJ7" s="11"/>
+      <c r="DK7" s="11"/>
+      <c r="DL7" s="11"/>
+      <c r="DM7" s="11"/>
+      <c r="DN7" s="11"/>
+      <c r="DO7" s="11"/>
+      <c r="DP7" s="11"/>
+      <c r="DQ7" s="11"/>
+      <c r="DR7" s="11"/>
+      <c r="DS7" s="11"/>
+      <c r="DT7" s="11"/>
+      <c r="DU7" s="11"/>
+      <c r="DV7" s="11"/>
+      <c r="DW7" s="11"/>
+      <c r="DX7" s="11"/>
+      <c r="DY7" s="11"/>
+      <c r="DZ7" s="11"/>
+      <c r="EA7" s="11"/>
+      <c r="EB7" s="11"/>
+      <c r="EC7" s="11"/>
+      <c r="ED7" s="11"/>
+      <c r="EE7" s="11"/>
+      <c r="EF7" s="11"/>
+      <c r="EG7" s="11"/>
+      <c r="EH7" s="11"/>
+      <c r="EI7" s="11"/>
+      <c r="EJ7" s="11"/>
+      <c r="EK7" s="11"/>
+      <c r="EL7" s="11"/>
+      <c r="EM7" s="11"/>
+      <c r="EN7" s="11"/>
+      <c r="EO7" s="11"/>
+      <c r="EP7" s="11"/>
+      <c r="EQ7" s="11"/>
+      <c r="ER7" s="11"/>
+      <c r="ES7" s="11"/>
+      <c r="ET7" s="11"/>
+      <c r="EU7" s="11"/>
     </row>
-    <row r="8" spans="1:151" s="7" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63">
+    <row r="8" spans="1:151" s="2" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="95">
         <v>1</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="12"/>
-      <c r="BB8" s="12"/>
-      <c r="BC8" s="12"/>
-      <c r="BD8" s="12"/>
-      <c r="BE8" s="12"/>
-      <c r="BF8" s="12"/>
-      <c r="BG8" s="12"/>
-      <c r="BH8" s="12"/>
-      <c r="BI8" s="12"/>
-      <c r="BJ8" s="12"/>
-      <c r="BK8" s="12"/>
-      <c r="BL8" s="12"/>
-      <c r="BM8" s="12"/>
-      <c r="BN8" s="12"/>
-      <c r="BO8" s="12"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BH8" s="5"/>
+      <c r="BI8" s="5"/>
+      <c r="BJ8" s="5"/>
+      <c r="BK8" s="5"/>
+      <c r="BL8" s="5"/>
+      <c r="BM8" s="5"/>
+      <c r="BN8" s="5"/>
+      <c r="BO8" s="5"/>
     </row>
-    <row r="9" spans="1:151" s="8" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="str">
+    <row r="9" spans="1:151" s="3" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="105" t="str">
         <f t="shared" ref="A9:A10" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="61">
+      <c r="E9" s="108"/>
+      <c r="F9" s="109">
         <v>45775</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="110">
         <f>IF(ISBLANK(F9)," - ",IF(H9=0,F9,F9+H9-1))</f>
         <v>45775</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="111">
         <v>1</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="112">
         <v>0</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="113">
         <f>IF(OR(G9=0,F9=0),0,NETWORKDAYS(F9,G9))</f>
         <v>1</v>
       </c>
-      <c r="K9" s="66"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10"/>
-      <c r="BA9" s="10"/>
-      <c r="BB9" s="10"/>
-      <c r="BC9" s="10"/>
-      <c r="BD9" s="10"/>
-      <c r="BE9" s="10"/>
-      <c r="BF9" s="10"/>
-      <c r="BG9" s="10"/>
-      <c r="BH9" s="10"/>
-      <c r="BI9" s="10"/>
-      <c r="BJ9" s="10"/>
-      <c r="BK9" s="10"/>
-      <c r="BL9" s="10"/>
-      <c r="BM9" s="10"/>
-      <c r="BN9" s="10"/>
-      <c r="BO9" s="10"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="4"/>
+      <c r="BH9" s="4"/>
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="4"/>
+      <c r="BK9" s="4"/>
+      <c r="BL9" s="4"/>
+      <c r="BM9" s="4"/>
+      <c r="BN9" s="4"/>
+      <c r="BO9" s="4"/>
     </row>
-    <row r="10" spans="1:151" s="8" customFormat="1" ht="69" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="str">
+    <row r="10" spans="1:151" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="105" t="str">
         <f t="shared" si="8"/>
         <v>1.2</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="61">
+      <c r="E10" s="108"/>
+      <c r="F10" s="109">
         <f>G9+1</f>
         <v>45776</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="110">
         <f t="shared" ref="G10:G13" si="9">IF(ISBLANK(F10)," - ",IF(H10=0,F10,F10+H10-1))</f>
         <v>45781</v>
       </c>
-      <c r="H10" s="87">
+      <c r="H10" s="111">
         <v>6</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="112">
         <v>0</v>
       </c>
-      <c r="J10" s="73">
+      <c r="J10" s="113">
         <f>IF(OR(G10=0,F10=0),0,NETWORKDAYS(F10,G10))</f>
         <v>4</v>
       </c>
-      <c r="K10" s="88"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="10"/>
-      <c r="BA10" s="10"/>
-      <c r="BB10" s="10"/>
-      <c r="BC10" s="10"/>
-      <c r="BD10" s="10"/>
-      <c r="BE10" s="10"/>
-      <c r="BF10" s="10"/>
-      <c r="BG10" s="10"/>
-      <c r="BH10" s="10"/>
-      <c r="BI10" s="10"/>
-      <c r="BJ10" s="10"/>
-      <c r="BK10" s="10"/>
-      <c r="BL10" s="10"/>
-      <c r="BM10" s="10"/>
-      <c r="BN10" s="10"/>
-      <c r="BO10" s="10"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="4"/>
+      <c r="BK10" s="4"/>
+      <c r="BL10" s="4"/>
+      <c r="BM10" s="4"/>
+      <c r="BN10" s="4"/>
+      <c r="BO10" s="4"/>
     </row>
-    <row r="11" spans="1:151" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="str">
+    <row r="11" spans="1:151" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="95" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="10"/>
-      <c r="AZ11" s="10"/>
-      <c r="BA11" s="10"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10"/>
-      <c r="BE11" s="10"/>
-      <c r="BF11" s="10"/>
-      <c r="BG11" s="10"/>
-      <c r="BH11" s="10"/>
-      <c r="BI11" s="10"/>
-      <c r="BJ11" s="10"/>
-      <c r="BK11" s="10"/>
-      <c r="BL11" s="10"/>
-      <c r="BM11" s="10"/>
-      <c r="BN11" s="10"/>
-      <c r="BO11" s="10"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="4"/>
+      <c r="BK11" s="4"/>
+      <c r="BL11" s="4"/>
+      <c r="BM11" s="4"/>
+      <c r="BN11" s="4"/>
+      <c r="BO11" s="4"/>
     </row>
-    <row r="12" spans="1:151" s="8" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="str">
+    <row r="12" spans="1:151" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="105" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="61">
+      <c r="E12" s="123"/>
+      <c r="F12" s="109">
         <f>G10+1</f>
         <v>45782</v>
       </c>
-      <c r="G12" s="58">
+      <c r="G12" s="110">
         <f t="shared" si="9"/>
         <v>45784</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="111">
         <v>3</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="112">
         <v>0</v>
       </c>
-      <c r="J12" s="73">
+      <c r="J12" s="113">
         <f>IF(OR(G12=0,F12=0),0,NETWORKDAYS(F12,G12))</f>
         <v>3</v>
       </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="10"/>
-      <c r="AW12" s="10"/>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="10"/>
-      <c r="AZ12" s="10"/>
-      <c r="BA12" s="10"/>
-      <c r="BB12" s="10"/>
-      <c r="BC12" s="10"/>
-      <c r="BD12" s="10"/>
-      <c r="BE12" s="10"/>
-      <c r="BF12" s="10"/>
-      <c r="BG12" s="10"/>
-      <c r="BH12" s="10"/>
-      <c r="BI12" s="10"/>
-      <c r="BJ12" s="10"/>
-      <c r="BK12" s="10"/>
-      <c r="BL12" s="10"/>
-      <c r="BM12" s="10"/>
-      <c r="BN12" s="10"/>
-      <c r="BO12" s="10"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+      <c r="BF12" s="4"/>
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="4"/>
+      <c r="BI12" s="4"/>
+      <c r="BJ12" s="4"/>
+      <c r="BK12" s="4"/>
+      <c r="BL12" s="4"/>
+      <c r="BM12" s="4"/>
+      <c r="BN12" s="4"/>
+      <c r="BO12" s="4"/>
     </row>
-    <row r="13" spans="1:151" s="8" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="str">
+    <row r="13" spans="1:151" s="3" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="105" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="61">
+      <c r="E13" s="123"/>
+      <c r="F13" s="109">
         <f>G12+1</f>
         <v>45785</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="110">
         <f t="shared" si="9"/>
         <v>45787</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="111">
         <v>3</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="112">
         <v>0</v>
       </c>
-      <c r="J13" s="73">
+      <c r="J13" s="113">
         <f>IF(OR(G13=0,F13=0),0,NETWORKDAYS(F13,G13))</f>
         <v>2</v>
       </c>
-      <c r="K13" s="66"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
-      <c r="AV13" s="10"/>
-      <c r="AW13" s="10"/>
-      <c r="AX13" s="10"/>
-      <c r="AY13" s="10"/>
-      <c r="AZ13" s="10"/>
-      <c r="BA13" s="10"/>
-      <c r="BB13" s="10"/>
-      <c r="BC13" s="10"/>
-      <c r="BD13" s="10"/>
-      <c r="BE13" s="10"/>
-      <c r="BF13" s="10"/>
-      <c r="BG13" s="10"/>
-      <c r="BH13" s="10"/>
-      <c r="BI13" s="10"/>
-      <c r="BJ13" s="10"/>
-      <c r="BK13" s="10"/>
-      <c r="BL13" s="10"/>
-      <c r="BM13" s="10"/>
-      <c r="BN13" s="10"/>
-      <c r="BO13" s="10"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
+      <c r="BL13" s="4"/>
+      <c r="BM13" s="4"/>
+      <c r="BN13" s="4"/>
+      <c r="BO13" s="4"/>
     </row>
-    <row r="14" spans="1:151" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="str">
+    <row r="14" spans="1:151" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="95" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="10"/>
-      <c r="AX14" s="10"/>
-      <c r="AY14" s="10"/>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="10"/>
-      <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
-      <c r="BE14" s="10"/>
-      <c r="BF14" s="10"/>
-      <c r="BG14" s="10"/>
-      <c r="BH14" s="10"/>
-      <c r="BI14" s="10"/>
-      <c r="BJ14" s="10"/>
-      <c r="BK14" s="10"/>
-      <c r="BL14" s="10"/>
-      <c r="BM14" s="10"/>
-      <c r="BN14" s="10"/>
-      <c r="BO14" s="10"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
+      <c r="BN14" s="4"/>
+      <c r="BO14" s="4"/>
     </row>
-    <row r="15" spans="1:151" s="8" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="str">
+    <row r="15" spans="1:151" s="3" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="105" t="str">
         <f t="shared" ref="A15" si="10">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="89" t="s">
+      <c r="C15" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="61">
+      <c r="E15" s="123"/>
+      <c r="F15" s="109">
         <f>G13+1</f>
         <v>45788</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="110">
         <f t="shared" ref="G15" si="11">IF(ISBLANK(F15)," - ",IF(H15=0,F15,F15+H15-1))</f>
         <v>45790</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="111">
         <v>3</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="112">
         <v>0</v>
       </c>
-      <c r="J15" s="73">
+      <c r="J15" s="113">
         <f t="shared" ref="J15" si="12">IF(OR(G15=0,F15=0),0,NETWORKDAYS(F15,G15))</f>
         <v>2</v>
       </c>
-      <c r="K15" s="100"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="10"/>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="10"/>
-      <c r="AY15" s="10"/>
-      <c r="AZ15" s="10"/>
-      <c r="BA15" s="10"/>
-      <c r="BB15" s="10"/>
-      <c r="BC15" s="10"/>
-      <c r="BD15" s="10"/>
-      <c r="BE15" s="10"/>
-      <c r="BF15" s="10"/>
-      <c r="BG15" s="10"/>
-      <c r="BH15" s="10"/>
-      <c r="BI15" s="10"/>
-      <c r="BJ15" s="10"/>
-      <c r="BK15" s="10"/>
-      <c r="BL15" s="10"/>
-      <c r="BM15" s="10"/>
-      <c r="BN15" s="10"/>
-      <c r="BO15" s="10"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
+      <c r="BL15" s="4"/>
+      <c r="BM15" s="4"/>
+      <c r="BN15" s="4"/>
+      <c r="BO15" s="4"/>
     </row>
-    <row r="16" spans="1:151" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="str">
+    <row r="16" spans="1:151" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="95" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
-      <c r="AV16" s="10"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="10"/>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="10"/>
-      <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
-      <c r="BE16" s="10"/>
-      <c r="BF16" s="10"/>
-      <c r="BG16" s="10"/>
-      <c r="BH16" s="10"/>
-      <c r="BI16" s="10"/>
-      <c r="BJ16" s="10"/>
-      <c r="BK16" s="10"/>
-      <c r="BL16" s="10"/>
-      <c r="BM16" s="10"/>
-      <c r="BN16" s="10"/>
-      <c r="BO16" s="10"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+      <c r="BI16" s="4"/>
+      <c r="BJ16" s="4"/>
+      <c r="BK16" s="4"/>
+      <c r="BL16" s="4"/>
+      <c r="BM16" s="4"/>
+      <c r="BN16" s="4"/>
+      <c r="BO16" s="4"/>
     </row>
-    <row r="17" spans="1:67" s="8" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="str">
+    <row r="17" spans="1:67" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="105" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="89" t="s">
+      <c r="D17" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="61">
+      <c r="E17" s="123"/>
+      <c r="F17" s="109">
         <f>G15+1</f>
         <v>45791</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="110">
         <f t="shared" ref="G17:G20" si="13">IF(ISBLANK(F17)," - ",IF(H17=0,F17,F17+H17-1))</f>
         <v>45795</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="111">
         <v>5</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="112">
         <v>0</v>
       </c>
-      <c r="J17" s="73">
+      <c r="J17" s="113">
         <f>IF(OR(G17=0,F17=0),0,NETWORKDAYS(F17,G17))</f>
         <v>3</v>
       </c>
-      <c r="K17" s="66"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="10"/>
-      <c r="AO17" s="10"/>
-      <c r="AP17" s="10"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="10"/>
-      <c r="AV17" s="10"/>
-      <c r="AW17" s="10"/>
-      <c r="AX17" s="10"/>
-      <c r="AY17" s="10"/>
-      <c r="AZ17" s="10"/>
-      <c r="BA17" s="10"/>
-      <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
-      <c r="BD17" s="10"/>
-      <c r="BE17" s="10"/>
-      <c r="BF17" s="10"/>
-      <c r="BG17" s="10"/>
-      <c r="BH17" s="10"/>
-      <c r="BI17" s="10"/>
-      <c r="BJ17" s="10"/>
-      <c r="BK17" s="10"/>
-      <c r="BL17" s="10"/>
-      <c r="BM17" s="10"/>
-      <c r="BN17" s="10"/>
-      <c r="BO17" s="10"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
+      <c r="BL17" s="4"/>
+      <c r="BM17" s="4"/>
+      <c r="BN17" s="4"/>
+      <c r="BO17" s="4"/>
     </row>
-    <row r="18" spans="1:67" s="8" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="str">
+    <row r="18" spans="1:67" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="105" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.2</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="61">
+      <c r="D18" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="123"/>
+      <c r="F18" s="109">
         <f>G17+1</f>
         <v>45796</v>
       </c>
-      <c r="G18" s="58">
+      <c r="G18" s="110">
         <f t="shared" si="13"/>
         <v>45798</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="111">
         <v>3</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="112">
         <v>0</v>
       </c>
-      <c r="J18" s="73">
+      <c r="J18" s="113">
         <f>IF(OR(G18=0,F18=0),0,NETWORKDAYS(F18,G18))</f>
         <v>3</v>
       </c>
-      <c r="K18" s="66"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="10"/>
-      <c r="AO18" s="10"/>
-      <c r="AP18" s="10"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="10"/>
-      <c r="AV18" s="10"/>
-      <c r="AW18" s="10"/>
-      <c r="AX18" s="10"/>
-      <c r="AY18" s="10"/>
-      <c r="AZ18" s="10"/>
-      <c r="BA18" s="10"/>
-      <c r="BB18" s="10"/>
-      <c r="BC18" s="10"/>
-      <c r="BD18" s="10"/>
-      <c r="BE18" s="10"/>
-      <c r="BF18" s="10"/>
-      <c r="BG18" s="10"/>
-      <c r="BH18" s="10"/>
-      <c r="BI18" s="10"/>
-      <c r="BJ18" s="10"/>
-      <c r="BK18" s="10"/>
-      <c r="BL18" s="10"/>
-      <c r="BM18" s="10"/>
-      <c r="BN18" s="10"/>
-      <c r="BO18" s="10"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
+      <c r="BL18" s="4"/>
+      <c r="BM18" s="4"/>
+      <c r="BN18" s="4"/>
+      <c r="BO18" s="4"/>
     </row>
-    <row r="19" spans="1:67" s="8" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="str">
+    <row r="19" spans="1:67" s="3" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="105" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.3</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="97" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="61">
+      <c r="C19" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="123"/>
+      <c r="F19" s="109">
         <f t="shared" ref="F19:F20" si="14">G18+1</f>
         <v>45799</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G19" s="110">
         <f t="shared" ref="G19" si="15">IF(ISBLANK(F19)," - ",IF(H19=0,F19,F19+H19-1))</f>
         <v>45800</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="111">
         <v>2</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="112">
         <v>0</v>
       </c>
-      <c r="J19" s="73">
+      <c r="J19" s="113">
         <f>IF(OR(G19=0,F19=0),0,NETWORKDAYS(F19,G19))</f>
         <v>2</v>
       </c>
-      <c r="K19" s="66"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="10"/>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="10"/>
-      <c r="AO19" s="10"/>
-      <c r="AP19" s="10"/>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="10"/>
-      <c r="AS19" s="10"/>
-      <c r="AT19" s="10"/>
-      <c r="AU19" s="10"/>
-      <c r="AV19" s="10"/>
-      <c r="AW19" s="10"/>
-      <c r="AX19" s="10"/>
-      <c r="AY19" s="10"/>
-      <c r="AZ19" s="10"/>
-      <c r="BA19" s="10"/>
-      <c r="BB19" s="10"/>
-      <c r="BC19" s="10"/>
-      <c r="BD19" s="10"/>
-      <c r="BE19" s="10"/>
-      <c r="BF19" s="10"/>
-      <c r="BG19" s="10"/>
-      <c r="BH19" s="10"/>
-      <c r="BI19" s="10"/>
-      <c r="BJ19" s="10"/>
-      <c r="BK19" s="10"/>
-      <c r="BL19" s="10"/>
-      <c r="BM19" s="10"/>
-      <c r="BN19" s="10"/>
-      <c r="BO19" s="10"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="4"/>
+      <c r="BK19" s="4"/>
+      <c r="BL19" s="4"/>
+      <c r="BM19" s="4"/>
+      <c r="BN19" s="4"/>
+      <c r="BO19" s="4"/>
     </row>
-    <row r="20" spans="1:67" s="8" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="str">
+    <row r="20" spans="1:67" s="3" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="105" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.4</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="138" t="s">
+      <c r="C20" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="61">
+      <c r="D20" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="123"/>
+      <c r="F20" s="109">
         <f t="shared" si="14"/>
         <v>45801</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="110">
         <f t="shared" si="13"/>
         <v>45802</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="111">
         <v>2</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="112">
         <v>0</v>
       </c>
-      <c r="J20" s="73">
+      <c r="J20" s="113">
         <f>IF(OR(G20=0,F20=0),0,NETWORKDAYS(F20,G20))</f>
         <v>0</v>
       </c>
-      <c r="K20" s="66"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="10"/>
-      <c r="AN20" s="10"/>
-      <c r="AO20" s="10"/>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="10"/>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="10"/>
-      <c r="AX20" s="10"/>
-      <c r="AY20" s="10"/>
-      <c r="AZ20" s="10"/>
-      <c r="BA20" s="10"/>
-      <c r="BB20" s="10"/>
-      <c r="BC20" s="10"/>
-      <c r="BD20" s="10"/>
-      <c r="BE20" s="10"/>
-      <c r="BF20" s="10"/>
-      <c r="BG20" s="10"/>
-      <c r="BH20" s="10"/>
-      <c r="BI20" s="10"/>
-      <c r="BJ20" s="10"/>
-      <c r="BK20" s="10"/>
-      <c r="BL20" s="10"/>
-      <c r="BM20" s="10"/>
-      <c r="BN20" s="10"/>
-      <c r="BO20" s="10"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+      <c r="BF20" s="4"/>
+      <c r="BG20" s="4"/>
+      <c r="BH20" s="4"/>
+      <c r="BI20" s="4"/>
+      <c r="BJ20" s="4"/>
+      <c r="BK20" s="4"/>
+      <c r="BL20" s="4"/>
+      <c r="BM20" s="4"/>
+      <c r="BN20" s="4"/>
+      <c r="BO20" s="4"/>
     </row>
-    <row r="21" spans="1:67" s="15" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="str">
+    <row r="21" spans="1:67" s="6" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="10"/>
-      <c r="AP21" s="10"/>
-      <c r="AQ21" s="10"/>
-      <c r="AR21" s="10"/>
-      <c r="AS21" s="10"/>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="10"/>
-      <c r="AV21" s="10"/>
-      <c r="AW21" s="10"/>
-      <c r="AX21" s="10"/>
-      <c r="AY21" s="10"/>
-      <c r="AZ21" s="10"/>
-      <c r="BA21" s="10"/>
-      <c r="BB21" s="10"/>
-      <c r="BC21" s="10"/>
-      <c r="BD21" s="10"/>
-      <c r="BE21" s="10"/>
-      <c r="BF21" s="10"/>
-      <c r="BG21" s="10"/>
-      <c r="BH21" s="10"/>
-      <c r="BI21" s="10"/>
-      <c r="BJ21" s="10"/>
-      <c r="BK21" s="10"/>
-      <c r="BL21" s="10"/>
-      <c r="BM21" s="10"/>
-      <c r="BN21" s="10"/>
-      <c r="BO21" s="10"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+      <c r="BF21" s="4"/>
+      <c r="BG21" s="4"/>
+      <c r="BH21" s="4"/>
+      <c r="BI21" s="4"/>
+      <c r="BJ21" s="4"/>
+      <c r="BK21" s="4"/>
+      <c r="BL21" s="4"/>
+      <c r="BM21" s="4"/>
+      <c r="BN21" s="4"/>
+      <c r="BO21" s="4"/>
     </row>
-    <row r="22" spans="1:67" s="15" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="str">
+    <row r="22" spans="1:67" s="6" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="105" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.1</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="138" t="s">
+      <c r="C22" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="61">
+      <c r="E22" s="123"/>
+      <c r="F22" s="109">
         <f>G20+1</f>
         <v>45803</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="110">
         <f t="shared" ref="G22:G24" si="16">IF(ISBLANK(F22)," - ",IF(H22=0,F22,F22+H22-1))</f>
         <v>45804</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="111">
         <v>2</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="112">
         <v>0</v>
       </c>
-      <c r="J22" s="73">
+      <c r="J22" s="113">
         <f>IF(OR(G22=0,F22=0),0,NETWORKDAYS(F22,G22))</f>
         <v>2</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
-      <c r="AU22" s="10"/>
-      <c r="AV22" s="10"/>
-      <c r="AW22" s="10"/>
-      <c r="AX22" s="10"/>
-      <c r="AY22" s="10"/>
-      <c r="AZ22" s="10"/>
-      <c r="BA22" s="10"/>
-      <c r="BB22" s="10"/>
-      <c r="BC22" s="10"/>
-      <c r="BD22" s="10"/>
-      <c r="BE22" s="10"/>
-      <c r="BF22" s="10"/>
-      <c r="BG22" s="10"/>
-      <c r="BH22" s="10"/>
-      <c r="BI22" s="10"/>
-      <c r="BJ22" s="10"/>
-      <c r="BK22" s="10"/>
-      <c r="BL22" s="10"/>
-      <c r="BM22" s="10"/>
-      <c r="BN22" s="10"/>
-      <c r="BO22" s="10"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="4"/>
+      <c r="BJ22" s="4"/>
+      <c r="BK22" s="4"/>
+      <c r="BL22" s="4"/>
+      <c r="BM22" s="4"/>
+      <c r="BN22" s="4"/>
+      <c r="BO22" s="4"/>
     </row>
-    <row r="23" spans="1:67" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="str">
+    <row r="23" spans="1:67" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="105" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.2</v>
       </c>
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="138" t="s">
+      <c r="C23" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="61">
+      <c r="E23" s="123"/>
+      <c r="F23" s="109">
         <f>G22+1</f>
         <v>45805</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="110">
         <f t="shared" si="16"/>
         <v>45809</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="111">
         <v>5</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="112">
         <v>0</v>
       </c>
-      <c r="J23" s="73">
+      <c r="J23" s="113">
         <f>IF(OR(G23=0,F23=0),0,NETWORKDAYS(F23,G23))</f>
         <v>3</v>
       </c>
-      <c r="K23" s="66"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10"/>
-      <c r="AP23" s="10"/>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10"/>
-      <c r="AS23" s="10"/>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="10"/>
-      <c r="AV23" s="10"/>
-      <c r="AW23" s="10"/>
-      <c r="AX23" s="10"/>
-      <c r="AY23" s="10"/>
-      <c r="AZ23" s="10"/>
-      <c r="BA23" s="10"/>
-      <c r="BB23" s="10"/>
-      <c r="BC23" s="10"/>
-      <c r="BD23" s="10"/>
-      <c r="BE23" s="10"/>
-      <c r="BF23" s="10"/>
-      <c r="BG23" s="10"/>
-      <c r="BH23" s="10"/>
-      <c r="BI23" s="10"/>
-      <c r="BJ23" s="10"/>
-      <c r="BK23" s="10"/>
-      <c r="BL23" s="10"/>
-      <c r="BM23" s="10"/>
-      <c r="BN23" s="10"/>
-      <c r="BO23" s="10"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4"/>
+      <c r="BK23" s="4"/>
+      <c r="BL23" s="4"/>
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="4"/>
+      <c r="BO23" s="4"/>
     </row>
-    <row r="24" spans="1:67" s="15" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="str">
+    <row r="24" spans="1:67" s="6" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="105" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.3</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="58" t="str">
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="110" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="111">
         <v>0</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="112">
         <v>0</v>
       </c>
-      <c r="J24" s="73">
+      <c r="J24" s="113">
         <f>IF(OR(G24=0,F24=0),0,NETWORKDAYS(F24,G24))</f>
         <v>0</v>
       </c>
-      <c r="K24" s="66"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10"/>
-      <c r="AM24" s="10"/>
-      <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
-      <c r="AP24" s="10"/>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10"/>
-      <c r="AS24" s="10"/>
-      <c r="AT24" s="10"/>
-      <c r="AU24" s="10"/>
-      <c r="AV24" s="10"/>
-      <c r="AW24" s="10"/>
-      <c r="AX24" s="10"/>
-      <c r="AY24" s="10"/>
-      <c r="AZ24" s="10"/>
-      <c r="BA24" s="10"/>
-      <c r="BB24" s="10"/>
-      <c r="BC24" s="10"/>
-      <c r="BD24" s="10"/>
-      <c r="BE24" s="10"/>
-      <c r="BF24" s="10"/>
-      <c r="BG24" s="10"/>
-      <c r="BH24" s="10"/>
-      <c r="BI24" s="10"/>
-      <c r="BJ24" s="10"/>
-      <c r="BK24" s="10"/>
-      <c r="BL24" s="10"/>
-      <c r="BM24" s="10"/>
-      <c r="BN24" s="10"/>
-      <c r="BO24" s="10"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+      <c r="BF24" s="4"/>
+      <c r="BG24" s="4"/>
+      <c r="BH24" s="4"/>
+      <c r="BI24" s="4"/>
+      <c r="BJ24" s="4"/>
+      <c r="BK24" s="4"/>
+      <c r="BL24" s="4"/>
+      <c r="BM24" s="4"/>
+      <c r="BN24" s="4"/>
+      <c r="BO24" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="BI4:BO4"/>
+    <mergeCell ref="BI5:BO5"/>
+    <mergeCell ref="AN5:AT5"/>
+    <mergeCell ref="AU4:BA4"/>
+    <mergeCell ref="AU5:BA5"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BB5:BH5"/>
     <mergeCell ref="AE1:AS1"/>
     <mergeCell ref="AG4:AM4"/>
     <mergeCell ref="AG5:AM5"/>
@@ -5030,14 +5020,6 @@
     <mergeCell ref="L5:R5"/>
     <mergeCell ref="Z4:AF4"/>
     <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="BI4:BO4"/>
-    <mergeCell ref="BI5:BO5"/>
-    <mergeCell ref="AN5:AT5"/>
-    <mergeCell ref="AU4:BA4"/>
-    <mergeCell ref="AU5:BA5"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BB5:BH5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I8:I24">
@@ -5084,7 +5066,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Start Date." sqref="J4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
-  <pageSetup scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
     <ignoredError sqref="G11 G14 G16 J12 I17:J17 I11:J11 I14:J14 I16:J16 J13 I20:J20" unlockedFormula="1"/>
@@ -5108,7 +5090,7 @@
                   </from>
                   <to>
                     <xdr:col>29</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>101600</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
